--- a/evaluation/results/isolation_forest/augmented/noise_2/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_2/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9288256227758007</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="C2">
-        <v>0.3571428571428572</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="D2">
-        <v>0.5357142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="E2">
-        <v>0.4285714285714285</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="F2">
-        <v>0.487012987012987</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="G2">
-        <v>0.5256064690026954</v>
+        <v>0.5831775700934579</v>
       </c>
       <c r="H2">
-        <v>0.7425762439807383</v>
+        <v>0.7589954521134296</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>346</v>
       </c>
       <c r="K2">
-        <v>507</v>
+        <v>188</v>
       </c>
       <c r="L2">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.975</v>
+        <v>0.9791666666666666</v>
       </c>
       <c r="C2">
-        <v>0.949438202247191</v>
+        <v>0.352059925093633</v>
       </c>
       <c r="D2">
-        <v>0.9620493358633776</v>
+        <v>0.5179063360881543</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.3571428571428572</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="C3">
-        <v>0.5357142857142857</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D3">
-        <v>0.4285714285714285</v>
+        <v>0.1206030150753769</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9288256227758007</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="C4">
-        <v>0.9288256227758007</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="D4">
-        <v>0.9288256227758007</v>
+        <v>0.3772241992882562</v>
       </c>
       <c r="E4">
-        <v>0.9288256227758007</v>
+        <v>0.3772241992882562</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6660714285714285</v>
+        <v>0.5220157657657658</v>
       </c>
       <c r="C5">
-        <v>0.7425762439807384</v>
+        <v>0.6046013911182451</v>
       </c>
       <c r="D5">
-        <v>0.695310382217403</v>
+        <v>0.3192546755817656</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9442170818505338</v>
+        <v>0.933614263729922</v>
       </c>
       <c r="C6">
-        <v>0.9288256227758007</v>
+        <v>0.3772241992882563</v>
       </c>
       <c r="D6">
-        <v>0.9354703653933161</v>
+        <v>0.4981118645786208</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>507</v>
+        <v>188</v>
       </c>
       <c r="C2">
-        <v>27</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
